--- a/시장분석용_정보/시장분석용_4690036000.xlsx
+++ b/시장분석용_정보/시장분석용_4690036000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1210</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>8259500064</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4690036000</v>
@@ -708,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>7316896</v>
@@ -720,117 +624,69 @@
         <v>25079</v>
       </c>
       <c r="O2">
-        <v>96.64</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>6.87</v>
       </c>
       <c r="R2">
-        <v>15.23</v>
+        <v>21.58</v>
       </c>
       <c r="S2">
-        <v>15.76</v>
+        <v>25.1</v>
       </c>
       <c r="T2">
-        <v>11.67</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>13.22</v>
+        <v>0.34</v>
       </c>
       <c r="V2">
-        <v>44.12</v>
+        <v>6.71</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="X2">
-        <v>25.89</v>
+        <v>6.1</v>
       </c>
       <c r="Y2">
-        <v>29.31</v>
+        <v>2.72</v>
       </c>
       <c r="Z2">
-        <v>36.74</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>37.65</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>25.94</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>25.66</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>6.87</v>
-      </c>
-      <c r="AH2">
-        <v>21.58</v>
-      </c>
-      <c r="AI2">
-        <v>25.1</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0.34</v>
-      </c>
-      <c r="AL2">
-        <v>6.71</v>
-      </c>
-      <c r="AM2">
-        <v>33.3</v>
-      </c>
-      <c r="AN2">
-        <v>6.1</v>
-      </c>
-      <c r="AO2">
-        <v>2.72</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>37.65</v>
-      </c>
-      <c r="AS2">
-        <v>25.94</v>
-      </c>
-      <c r="AT2">
-        <v>25.66</v>
-      </c>
-      <c r="AU2">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>2744</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>8259500064</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4690036000</v>
@@ -854,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>7799827</v>
@@ -866,117 +722,69 @@
         <v>41092</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="R3">
-        <v>7.12</v>
+        <v>18.36</v>
       </c>
       <c r="S3">
-        <v>36.65</v>
+        <v>24.63</v>
       </c>
       <c r="T3">
-        <v>31.56</v>
+        <v>6.6</v>
       </c>
       <c r="U3">
-        <v>11.53</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>13.14</v>
+        <v>0.78</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>42.07</v>
       </c>
       <c r="X3">
-        <v>37.83</v>
+        <v>0.99</v>
       </c>
       <c r="Y3">
-        <v>34.84</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>26.64</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>36.49</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>19.97</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>21.03</v>
       </c>
       <c r="AF3">
-        <v>5.59</v>
-      </c>
-      <c r="AG3">
-        <v>0.99</v>
-      </c>
-      <c r="AH3">
-        <v>18.36</v>
-      </c>
-      <c r="AI3">
-        <v>24.63</v>
-      </c>
-      <c r="AJ3">
-        <v>6.6</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0.78</v>
-      </c>
-      <c r="AM3">
-        <v>42.07</v>
-      </c>
-      <c r="AN3">
-        <v>0.99</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>36.49</v>
-      </c>
-      <c r="AS3">
-        <v>19.97</v>
-      </c>
-      <c r="AT3">
-        <v>22.5</v>
-      </c>
-      <c r="AU3">
-        <v>21.03</v>
-      </c>
-      <c r="AV3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>4263</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>8259500064</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4690036000</v>
@@ -1000,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>5690819</v>
@@ -1012,117 +820,69 @@
         <v>29276</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="R4">
-        <v>10.26</v>
+        <v>22.68</v>
       </c>
       <c r="S4">
-        <v>43.89</v>
+        <v>10.65</v>
       </c>
       <c r="T4">
-        <v>14.12</v>
+        <v>2.08</v>
       </c>
       <c r="U4">
-        <v>25.15</v>
+        <v>41.5</v>
       </c>
       <c r="V4">
-        <v>6.59</v>
+        <v>2.22</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>9.42</v>
       </c>
       <c r="X4">
-        <v>8.48</v>
+        <v>3.63</v>
       </c>
       <c r="Y4">
-        <v>42.52</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>18.94</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>54.95</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>22.66</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.29</v>
-      </c>
-      <c r="AG4">
-        <v>3.53</v>
-      </c>
-      <c r="AH4">
-        <v>22.68</v>
-      </c>
-      <c r="AI4">
-        <v>10.65</v>
-      </c>
-      <c r="AJ4">
-        <v>2.08</v>
-      </c>
-      <c r="AK4">
-        <v>41.5</v>
-      </c>
-      <c r="AL4">
-        <v>2.22</v>
-      </c>
-      <c r="AM4">
-        <v>9.42</v>
-      </c>
-      <c r="AN4">
-        <v>3.63</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>18.94</v>
-      </c>
-      <c r="AS4">
-        <v>54.95</v>
-      </c>
-      <c r="AT4">
-        <v>22.66</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
         <v>3.45</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>5787</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>8259500064</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4690036000</v>
@@ -1146,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>3721651</v>
@@ -1158,117 +918,69 @@
         <v>23787</v>
       </c>
       <c r="O5">
-        <v>52.18</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>47.82</v>
+        <v>0.14</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>47.38</v>
       </c>
       <c r="R5">
-        <v>8.380000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="S5">
-        <v>3.61</v>
+        <v>20.59</v>
       </c>
       <c r="T5">
-        <v>25.81</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.76</v>
+        <v>6.27</v>
       </c>
       <c r="V5">
-        <v>9.630000000000001</v>
+        <v>13.02</v>
       </c>
       <c r="W5">
-        <v>47.82</v>
+        <v>5.42</v>
       </c>
       <c r="X5">
-        <v>10.4</v>
+        <v>4.77</v>
       </c>
       <c r="Y5">
-        <v>67.47</v>
+        <v>3.02</v>
       </c>
       <c r="Z5">
-        <v>22.13</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>28.02</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>48.22</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.14</v>
-      </c>
-      <c r="AG5">
-        <v>47.38</v>
-      </c>
-      <c r="AH5">
-        <v>2.41</v>
-      </c>
-      <c r="AI5">
-        <v>20.59</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>6.27</v>
-      </c>
-      <c r="AL5">
-        <v>13.02</v>
-      </c>
-      <c r="AM5">
-        <v>5.42</v>
-      </c>
-      <c r="AN5">
-        <v>4.77</v>
-      </c>
-      <c r="AO5">
-        <v>3.02</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>28.02</v>
-      </c>
-      <c r="AS5">
-        <v>48.22</v>
-      </c>
-      <c r="AT5">
-        <v>20</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
         <v>0.73</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>7330</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>8259500064</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4690036000</v>
@@ -1292,7 +1004,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>2653045</v>
@@ -1304,117 +1016,69 @@
         <v>18529</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>6.67</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="R6">
-        <v>9.02</v>
+        <v>28.93</v>
       </c>
       <c r="S6">
-        <v>9.06</v>
+        <v>8.06</v>
       </c>
       <c r="T6">
-        <v>41.02</v>
+        <v>2.47</v>
       </c>
       <c r="U6">
-        <v>24.54</v>
+        <v>0.93</v>
       </c>
       <c r="V6">
-        <v>16.36</v>
+        <v>5.13</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>30.47</v>
       </c>
       <c r="X6">
-        <v>2.64</v>
+        <v>9.6</v>
       </c>
       <c r="Y6">
-        <v>42.81</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>53.76</v>
+        <v>2.47</v>
       </c>
       <c r="AA6">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="AE6">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.93</v>
-      </c>
-      <c r="AG6">
-        <v>6.82</v>
-      </c>
-      <c r="AH6">
-        <v>28.93</v>
-      </c>
-      <c r="AI6">
-        <v>8.06</v>
-      </c>
-      <c r="AJ6">
-        <v>2.47</v>
-      </c>
-      <c r="AK6">
-        <v>0.93</v>
-      </c>
-      <c r="AL6">
-        <v>5.13</v>
-      </c>
-      <c r="AM6">
-        <v>30.47</v>
-      </c>
-      <c r="AN6">
-        <v>9.6</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>2.47</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>10.79</v>
-      </c>
-      <c r="AS6">
-        <v>73.79000000000001</v>
-      </c>
-      <c r="AT6">
-        <v>12.95</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>8870</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>8259500064</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4690036000</v>
@@ -1438,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>1911779</v>
@@ -1450,117 +1114,69 @@
         <v>19316</v>
       </c>
       <c r="O7">
-        <v>96.78</v>
+        <v>16.19</v>
       </c>
       <c r="P7">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="R7">
-        <v>40.44</v>
+        <v>4.01</v>
       </c>
       <c r="S7">
-        <v>16.19</v>
+        <v>18.86</v>
       </c>
       <c r="T7">
-        <v>8.859999999999999</v>
+        <v>5.45</v>
       </c>
       <c r="U7">
-        <v>14.77</v>
+        <v>21.04</v>
       </c>
       <c r="V7">
-        <v>16.54</v>
+        <v>1.31</v>
       </c>
       <c r="W7">
-        <v>3.22</v>
+        <v>21.39</v>
       </c>
       <c r="X7">
-        <v>22.51</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Y7">
-        <v>23.57</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>53.92</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>19.4</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>63.05</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="AE7">
-        <v>16.19</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>2.89</v>
-      </c>
-      <c r="AH7">
-        <v>4.01</v>
-      </c>
-      <c r="AI7">
-        <v>18.86</v>
-      </c>
-      <c r="AJ7">
-        <v>5.45</v>
-      </c>
-      <c r="AK7">
-        <v>21.04</v>
-      </c>
-      <c r="AL7">
-        <v>1.31</v>
-      </c>
-      <c r="AM7">
-        <v>21.39</v>
-      </c>
-      <c r="AN7">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>19.4</v>
-      </c>
-      <c r="AS7">
-        <v>63.05</v>
-      </c>
-      <c r="AT7">
-        <v>17.55</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>10418</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>8259500064</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4690036000</v>
@@ -1584,7 +1200,7 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>1662848</v>
@@ -1596,49 +1212,49 @@
         <v>29436</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="R8">
-        <v>32.8</v>
+        <v>6.73</v>
       </c>
       <c r="S8">
-        <v>26.81</v>
+        <v>28.38</v>
       </c>
       <c r="T8">
-        <v>11.09</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>22.58</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>41.63</v>
       </c>
       <c r="X8">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>30.57</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>66.12</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>25.57</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1647,66 +1263,18 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>18.62</v>
-      </c>
-      <c r="AG8">
-        <v>4.63</v>
-      </c>
-      <c r="AH8">
-        <v>6.73</v>
-      </c>
-      <c r="AI8">
-        <v>28.38</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>41.63</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>25.57</v>
-      </c>
-      <c r="AS8">
-        <v>74.43000000000001</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>11970</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>8259500064</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4690036000</v>
@@ -1730,7 +1298,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>973900</v>
@@ -1742,117 +1310,69 @@
         <v>13300</v>
       </c>
       <c r="O9">
-        <v>84.48</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>15.52</v>
+        <v>4.78</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>8.06</v>
       </c>
       <c r="R9">
-        <v>27.34</v>
+        <v>3.76</v>
       </c>
       <c r="S9">
-        <v>27.23</v>
+        <v>16.11</v>
       </c>
       <c r="T9">
-        <v>24.17</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>19.07</v>
+        <v>19.6</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="X9">
-        <v>47.91</v>
+        <v>39.96</v>
       </c>
       <c r="Y9">
-        <v>19.87</v>
+        <v>23.85</v>
       </c>
       <c r="Z9">
-        <v>32.22</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>16.11</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>57.47</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>4.78</v>
-      </c>
-      <c r="AG9">
-        <v>8.06</v>
-      </c>
-      <c r="AH9">
-        <v>3.76</v>
-      </c>
-      <c r="AI9">
-        <v>16.11</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>19.6</v>
-      </c>
-      <c r="AM9">
-        <v>7.73</v>
-      </c>
-      <c r="AN9">
-        <v>39.96</v>
-      </c>
-      <c r="AO9">
-        <v>23.85</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>16.11</v>
-      </c>
-      <c r="AS9">
-        <v>57.47</v>
-      </c>
-      <c r="AT9">
-        <v>2.58</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>13516</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>8259500064</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4690036000</v>
@@ -1876,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>967477</v>
@@ -1888,40 +1408,40 @@
         <v>20511</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="R10">
-        <v>12.19</v>
+        <v>16.25</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>1.57</v>
       </c>
-      <c r="U10">
-        <v>21.45</v>
-      </c>
-      <c r="V10">
-        <v>64.79000000000001</v>
-      </c>
       <c r="W10">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="X10">
         <v>21.45</v>
       </c>
       <c r="Y10">
-        <v>28.17</v>
+        <v>21.45</v>
       </c>
       <c r="Z10">
-        <v>50.38</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1930,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>46.75</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1941,64 +1461,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="AH10">
-        <v>16.25</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>1.57</v>
-      </c>
-      <c r="AM10">
-        <v>52.6</v>
-      </c>
-      <c r="AN10">
-        <v>21.45</v>
-      </c>
-      <c r="AO10">
-        <v>21.45</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>31.8</v>
-      </c>
-      <c r="AT10">
-        <v>46.75</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>18155</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202012</v>
@@ -2010,10 +1482,10 @@
         <v>8259500064</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4690036000</v>
@@ -2022,7 +1494,7 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>1011228</v>
@@ -2034,7 +1506,7 @@
         <v>66267</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2043,20 +1515,20 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>36.42</v>
+      </c>
+      <c r="S11">
+        <v>27.67</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>35.92</v>
       </c>
-      <c r="S11">
-        <v>64.08</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
         <v>0</v>
       </c>
@@ -2064,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>35.92</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>64.08</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>27.67</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>72.33</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2087,64 +1559,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>36.42</v>
-      </c>
-      <c r="AI11">
-        <v>27.67</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>35.92</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>27.67</v>
-      </c>
-      <c r="AS11">
-        <v>72.33</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>19688</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202101</v>
@@ -2156,10 +1580,10 @@
         <v>8259500064</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4690036000</v>
@@ -2168,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>1016863</v>
@@ -2180,50 +1604,50 @@
         <v>60033</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>20.1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>100</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>44.25</v>
-      </c>
-      <c r="S12">
-        <v>35.65</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>20.1</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>55.75</v>
-      </c>
-      <c r="Y12">
-        <v>44.25</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -2233,64 +1657,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>20.1</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>100</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>21221</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202102</v>
@@ -2302,10 +1678,10 @@
         <v>8259500064</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4690036000</v>
@@ -2314,7 +1690,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>285908</v>
@@ -2326,7 +1702,7 @@
         <v>18467</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2335,28 +1711,28 @@
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>12.45</v>
       </c>
-      <c r="S13">
-        <v>65.16</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>22.38</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>87.55</v>
       </c>
       <c r="Y13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2368,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>87.55</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2377,66 +1753,18 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
         <v>12.45</v>
       </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>87.55</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>87.55</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>12.45</v>
-      </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>24310</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202104</v>
@@ -2448,10 +1776,10 @@
         <v>8259500064</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4690036000</v>
@@ -2460,7 +1788,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>804141</v>
@@ -2472,10 +1800,10 @@
         <v>26350</v>
       </c>
       <c r="O14">
-        <v>59.08</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>40.92</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2493,96 +1821,48 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>8.289999999999999</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>40.92</v>
+        <v>2.78</v>
       </c>
       <c r="X14">
-        <v>40.92</v>
+        <v>46.43</v>
       </c>
       <c r="Y14">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>7.27</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>43.52</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>7.27</v>
-      </c>
-      <c r="AI14">
-        <v>43.52</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>2.78</v>
-      </c>
-      <c r="AN14">
-        <v>46.43</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>43.52</v>
-      </c>
-      <c r="AS14">
-        <v>53.7</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>2.78</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>25874</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202105</v>
@@ -2594,10 +1874,10 @@
         <v>8259500064</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4690036000</v>
@@ -2606,7 +1886,7 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>570148</v>
@@ -2618,49 +1898,49 @@
         <v>37533</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>61.99</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>30.73</v>
       </c>
-      <c r="S15">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>61.99</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>7.28</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>69.27</v>
-      </c>
-      <c r="Z15">
-        <v>30.73</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
-        <v>0</v>
+        <v>38.01</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -2671,64 +1951,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>7.28</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>61.99</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>30.73</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>61.99</v>
-      </c>
-      <c r="AS15">
-        <v>38.01</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>27440</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202106</v>
@@ -2740,10 +1972,10 @@
         <v>8259500064</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4690036000</v>
@@ -2752,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>695780</v>
@@ -2764,50 +1996,50 @@
         <v>46033</v>
       </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>60.39</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>5.94</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>33.67</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>5.94</v>
+      </c>
+      <c r="AC16">
         <v>94.06</v>
       </c>
-      <c r="P16">
-        <v>5.94</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>33.67</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>60.39</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>5.94</v>
-      </c>
-      <c r="X16">
-        <v>5.94</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>94.06</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
       <c r="AD16">
         <v>0</v>
       </c>
@@ -2817,64 +2049,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>60.39</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>5.94</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>33.67</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>5.94</v>
-      </c>
-      <c r="AS16">
-        <v>94.06</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>29000</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202107</v>
@@ -2886,10 +2070,10 @@
         <v>8259500064</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4690036000</v>
@@ -2898,7 +2082,7 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>497384</v>
@@ -2910,40 +2094,40 @@
         <v>49500</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>100</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>74.14</v>
-      </c>
-      <c r="S17">
-        <v>25.86</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
-        <v>25.86</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>74.14</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2952,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2963,64 +2147,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>100</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>100</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>30574</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202108</v>
@@ -3032,10 +2168,10 @@
         <v>8259500064</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4690036000</v>
@@ -3044,7 +2180,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>1427449</v>
@@ -3056,49 +2192,49 @@
         <v>70075</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>22.01</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>22.01</v>
+        <v>64.22</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>2.96</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>64.22</v>
       </c>
-      <c r="U18">
-        <v>13.77</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>86.23</v>
-      </c>
-      <c r="Z18">
-        <v>13.77</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
-        <v>0</v>
+        <v>35.78</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -3107,66 +2243,18 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>22.01</v>
-      </c>
-      <c r="AG18">
-        <v>10.81</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>64.22</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>2.96</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>64.22</v>
-      </c>
-      <c r="AS18">
-        <v>35.78</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>32138</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202109</v>
@@ -3178,10 +2266,10 @@
         <v>8259500064</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4690036000</v>
@@ -3190,7 +2278,7 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>260433</v>
@@ -3202,7 +2290,7 @@
         <v>16733</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3214,105 +2302,57 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>16.53</v>
       </c>
-      <c r="T19">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>21.12</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>62.35</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>16.53</v>
+      </c>
+      <c r="AC19">
+        <v>62.35</v>
+      </c>
+      <c r="AD19">
         <v>21.12</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>62.35</v>
-      </c>
-      <c r="Z19">
-        <v>37.65</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>16.53</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>21.12</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>62.35</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>16.53</v>
-      </c>
-      <c r="AS19">
-        <v>62.35</v>
-      </c>
-      <c r="AT19">
-        <v>21.12</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>33705</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202110</v>
@@ -3324,10 +2364,10 @@
         <v>8259500064</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4690036000</v>
@@ -3336,7 +2376,7 @@
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>821733</v>
@@ -3348,7 +2388,7 @@
         <v>54033</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3357,41 +2397,41 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>18.69</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>57.43</v>
       </c>
       <c r="T20">
-        <v>23.87</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>42.57</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <v>57.43</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>57.43</v>
-      </c>
-      <c r="Y20">
+      <c r="AC20">
         <v>42.57</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
       <c r="AD20">
         <v>0</v>
       </c>
@@ -3401,64 +2441,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>57.43</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>42.57</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>57.43</v>
-      </c>
-      <c r="AS20">
-        <v>42.57</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>36855</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202112</v>
@@ -3470,10 +2462,10 @@
         <v>8259500064</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4690036000</v>
@@ -3482,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>2303840</v>
@@ -3494,7 +2486,7 @@
         <v>148633</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3506,105 +2498,57 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>15.7</v>
+      </c>
+      <c r="V21">
         <v>37.92</v>
       </c>
-      <c r="T21">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>46.38</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>62.08</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>62.08</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="AD21">
         <v>37.92</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>15.7</v>
-      </c>
-      <c r="AL21">
-        <v>37.92</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>46.38</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>62.08</v>
-      </c>
-      <c r="AT21">
-        <v>37.92</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>39962</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202202</v>
@@ -3616,10 +2560,10 @@
         <v>8259500064</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4690036000</v>
@@ -3628,7 +2572,7 @@
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>1265473</v>
@@ -3640,7 +2584,7 @@
         <v>122600</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3658,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>54.4</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3679,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3693,64 +2637,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>45.6</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>54.4</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>45.6</v>
-      </c>
-      <c r="AS22">
-        <v>54.4</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>43073</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202204</v>
@@ -3762,10 +2658,10 @@
         <v>8259500064</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4690036000</v>
@@ -3774,7 +2670,7 @@
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>1778937</v>
@@ -3786,7 +2682,7 @@
         <v>37733</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3795,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>35.51</v>
+        <v>22.64</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="T23">
-        <v>27.09</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>37.4</v>
+        <v>1.94</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3813,90 +2709,42 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>37.25</v>
+        <v>61.28</v>
       </c>
       <c r="Y23">
-        <v>35.51</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>27.24</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>16.08</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>18.32</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>27.71</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>22.64</v>
-      </c>
-      <c r="AI23">
-        <v>14.13</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>1.94</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>61.28</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>16.08</v>
-      </c>
-      <c r="AS23">
-        <v>37.9</v>
-      </c>
-      <c r="AT23">
-        <v>18.32</v>
-      </c>
-      <c r="AU23">
-        <v>27.71</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>44642</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202205</v>
@@ -3908,10 +2756,10 @@
         <v>8259500064</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4690036000</v>
@@ -3920,7 +2768,7 @@
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>442952</v>
@@ -3932,7 +2780,7 @@
         <v>28500</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3941,96 +2789,48 @@
         <v>0</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>83.04000000000001</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>16.96</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>7.72</v>
+      </c>
+      <c r="AC24">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="AD24">
         <v>9.24</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>7.72</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>16.96</v>
-      </c>
-      <c r="Z24">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>16.96</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>7.72</v>
-      </c>
-      <c r="AS24">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="AT24">
-        <v>9.24</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
         <v>0</v>
       </c>
     </row>
